--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\martinez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD07CE-2E5A-4B50-ABC5-67BD262B2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB512E9D-C3C9-484D-9E45-A92B8845311C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B2EE24F-4D9F-4C07-B887-598C03669AC7}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="136">
   <si>
     <t>EDIFICIO</t>
   </si>
@@ -619,72 +619,7 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
@@ -698,7 +633,19 @@
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -742,7 +689,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3433,7 +3424,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3446,24 +3437,24 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -3602,7 +3593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3735,7 +3726,7 @@
     <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -3759,20 +3750,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}" name="Tabla2" displayName="Tabla2" ref="A1:L180">
   <autoFilter ref="A1:L180" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}"/>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(1,(Contratos!$B$2:$B$203=H2)*(Contratos!$C$2:$C$203=F2)*(Contratos!$D$2:$D$203=G2)*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&gt;=DATE(YEAR(Contratos!$E$2:$E$203),MONTH(Contratos!$E$2:$E$203),1))*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&lt;=DATE(YEAR(Contratos!$F$2:$F$203),MONTH(Contratos!$F$2:$F$203),1)),Contratos!$A$2:$A$203,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{F0CAEC13-A22D-49CB-BE2E-9A4FC071AF92}" name="tipo"/>
-    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="19" totalsRowDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="18" totalsRowDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{4640DB88-1C85-480E-B479-D49720A50211}" name="EDIFICIO"/>
     <tableColumn id="3" xr3:uid="{CBA44883-DED6-4AA3-B725-E7EA2FB864E4}" name="PISO"/>
     <tableColumn id="4" xr3:uid="{0E9B9BFD-342C-42BD-AD06-36D131E7E418}" name="NOMBRE PROPIETARIO"/>
-    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="14" totalsRowDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="9" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>I2-SUM(J2:K2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3800,8 +3791,8 @@
     <tableColumn id="1" xr3:uid="{49B63D2B-D77A-41D1-A1A6-9DFBB2F2FD73}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{45D4B31E-F7AE-4F29-A512-F094D9EC8256}" name="Edificio"/>
     <tableColumn id="3" xr3:uid="{2BC4E8A2-CCFD-446C-95EE-2E708D93C82F}" name="Piso"/>
-    <tableColumn id="4" xr3:uid="{3910367C-17DC-4BEC-B1EA-9453E2FC7783}" name="Fecha inicio" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{735B4C96-C7F1-4E5E-8243-597EA027BDEB}" name="Fecha fin" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{3910367C-17DC-4BEC-B1EA-9453E2FC7783}" name="Fecha inicio" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{735B4C96-C7F1-4E5E-8243-597EA027BDEB}" name="Fecha fin" dataDxfId="0">
       <calculatedColumnFormula>DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{43CBE528-71BC-4EE5-90D4-91B96A898534}" name="Activo"/>
@@ -4130,7 +4121,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4133,8 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -4186,7 +4178,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,8 +4191,8 @@
       <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>110</v>
+      <c r="E3" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4245,16 +4237,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>26012500</v>
+        <v>2030300</v>
       </c>
       <c r="F6" s="6">
-        <v>2531950</v>
+        <v>199030</v>
       </c>
       <c r="G6" s="6">
-        <v>520000</v>
+        <v>40000</v>
       </c>
       <c r="H6" s="6">
-        <v>22960550</v>
+        <v>1791270</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,16 +4260,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>25605600</v>
+        <v>2152200</v>
       </c>
       <c r="F7" s="6">
-        <v>2486260</v>
+        <v>209220</v>
       </c>
       <c r="G7" s="6">
-        <v>740000</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="6">
-        <v>22379340</v>
+        <v>1882980</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,16 +4283,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="6">
-        <v>36990800</v>
+        <v>3053700</v>
       </c>
       <c r="F8" s="6">
-        <v>3599080</v>
+        <v>297370</v>
       </c>
       <c r="G8" s="6">
-        <v>1000000</v>
+        <v>80000</v>
       </c>
       <c r="H8" s="6">
-        <v>32391720</v>
+        <v>2676330</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,16 +4306,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>33514613</v>
+        <v>2710320</v>
       </c>
       <c r="F9" s="6">
-        <v>3243128</v>
+        <v>263032</v>
       </c>
       <c r="G9" s="6">
-        <v>980000</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="6">
-        <v>29291485</v>
+        <v>2367288</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4337,16 +4329,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="6">
-        <v>122123513</v>
+        <v>9946520</v>
       </c>
       <c r="F10" s="6">
-        <v>11860418</v>
+        <v>968652</v>
       </c>
       <c r="G10" s="6">
-        <v>3240000</v>
+        <v>260000</v>
       </c>
       <c r="H10" s="6">
-        <v>107023095</v>
+        <v>8717868</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4415,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA441FC2-F066-4240-A5D3-86173A9FBD6C}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:L180"/>
+    <sheetView topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:L170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11646,8 +11638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF62FC-3CE6-43D4-B164-4BD8E709E364}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A68" sqref="A2:A68"/>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11699,7 +11691,7 @@
         <v>45545</v>
       </c>
       <c r="F2" s="3">
-        <f>DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</f>
+        <f t="shared" ref="F2:F33" si="0">DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</f>
         <v>45726</v>
       </c>
       <c r="G2" t="b">
@@ -11723,7 +11715,7 @@
         <v>45737</v>
       </c>
       <c r="F3" s="3">
-        <f>DATE(YEAR(E3),MONTH(E3)+6,DAY(E3))</f>
+        <f t="shared" si="0"/>
         <v>45921</v>
       </c>
       <c r="G3" t="b">
@@ -11747,7 +11739,7 @@
         <v>45921</v>
       </c>
       <c r="F4" s="3">
-        <f>DATE(YEAR(E4),MONTH(E4)+6,DAY(E4))</f>
+        <f t="shared" si="0"/>
         <v>46102</v>
       </c>
       <c r="G4" t="b">
@@ -11771,7 +11763,7 @@
         <v>45604</v>
       </c>
       <c r="F5" s="3">
-        <f>DATE(YEAR(E5),MONTH(E5)+6,DAY(E5))</f>
+        <f t="shared" si="0"/>
         <v>45785</v>
       </c>
       <c r="G5" t="b">
@@ -11795,7 +11787,7 @@
         <v>45785</v>
       </c>
       <c r="F6" s="3">
-        <f>DATE(YEAR(E6),MONTH(E6)+6,DAY(E6))</f>
+        <f t="shared" si="0"/>
         <v>45969</v>
       </c>
       <c r="G6" t="b">
@@ -11819,7 +11811,7 @@
         <v>45136</v>
       </c>
       <c r="F7" s="3">
-        <f>DATE(YEAR(E7),MONTH(E7)+6,DAY(E7))</f>
+        <f t="shared" si="0"/>
         <v>45320</v>
       </c>
       <c r="G7" t="b">
@@ -11843,7 +11835,7 @@
         <v>45320</v>
       </c>
       <c r="F8" s="3">
-        <f>DATE(YEAR(E8),MONTH(E8)+6,DAY(E8))</f>
+        <f t="shared" si="0"/>
         <v>45502</v>
       </c>
       <c r="G8" t="b">
@@ -11867,7 +11859,7 @@
         <v>45502</v>
       </c>
       <c r="F9" s="3">
-        <f>DATE(YEAR(E9),MONTH(E9)+6,DAY(E9))</f>
+        <f t="shared" si="0"/>
         <v>45686</v>
       </c>
       <c r="G9" t="b">
@@ -11891,7 +11883,7 @@
         <v>45686</v>
       </c>
       <c r="F10" s="3">
-        <f>DATE(YEAR(E10),MONTH(E10)+6,DAY(E10))</f>
+        <f t="shared" si="0"/>
         <v>45867</v>
       </c>
       <c r="G10" t="b">
@@ -11915,7 +11907,7 @@
         <v>45867</v>
       </c>
       <c r="F11" s="3">
-        <f>DATE(YEAR(E11),MONTH(E11)+6,DAY(E11))</f>
+        <f t="shared" si="0"/>
         <v>46051</v>
       </c>
       <c r="G11" t="b">
@@ -11939,7 +11931,7 @@
         <v>45505</v>
       </c>
       <c r="F12" s="3">
-        <f>DATE(YEAR(E12),MONTH(E12)+6,DAY(E12))</f>
+        <f t="shared" si="0"/>
         <v>45689</v>
       </c>
       <c r="G12" t="b">
@@ -11963,7 +11955,7 @@
         <v>45689</v>
       </c>
       <c r="F13" s="3">
-        <f>DATE(YEAR(E13),MONTH(E13)+6,DAY(E13))</f>
+        <f t="shared" si="0"/>
         <v>45870</v>
       </c>
       <c r="G13" t="b">
@@ -11987,7 +11979,7 @@
         <v>45539</v>
       </c>
       <c r="F14" s="3">
-        <f>DATE(YEAR(E14),MONTH(E14)+6,DAY(E14))</f>
+        <f t="shared" si="0"/>
         <v>45720</v>
       </c>
       <c r="G14" t="b">
@@ -12011,7 +12003,7 @@
         <v>45720</v>
       </c>
       <c r="F15" s="3">
-        <f>DATE(YEAR(E15),MONTH(E15)+6,DAY(E15))</f>
+        <f t="shared" si="0"/>
         <v>45904</v>
       </c>
       <c r="G15" t="b">
@@ -12035,7 +12027,7 @@
         <v>45904</v>
       </c>
       <c r="F16" s="3">
-        <f>DATE(YEAR(E16),MONTH(E16)+6,DAY(E16))</f>
+        <f t="shared" si="0"/>
         <v>46085</v>
       </c>
       <c r="G16" t="b">
@@ -12059,7 +12051,7 @@
         <v>45997</v>
       </c>
       <c r="F17" s="3">
-        <f>DATE(YEAR(E17),MONTH(E17)+6,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>46179</v>
       </c>
       <c r="G17" t="b">
@@ -12083,7 +12075,7 @@
         <v>45930</v>
       </c>
       <c r="F18" s="3">
-        <f>DATE(YEAR(E18),MONTH(E18)+6,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>46111</v>
       </c>
       <c r="G18" t="b">
@@ -12107,7 +12099,7 @@
         <v>43594</v>
       </c>
       <c r="F19" s="3">
-        <f>DATE(YEAR(E19),MONTH(E19)+6,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>43778</v>
       </c>
       <c r="G19" t="b">
@@ -12131,7 +12123,7 @@
         <v>43778</v>
       </c>
       <c r="F20" s="3">
-        <f>DATE(YEAR(E20),MONTH(E20)+6,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>43960</v>
       </c>
       <c r="G20" t="b">
@@ -12155,7 +12147,7 @@
         <v>43960</v>
       </c>
       <c r="F21" s="3">
-        <f>DATE(YEAR(E21),MONTH(E21)+6,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44144</v>
       </c>
       <c r="G21" t="b">
@@ -12179,7 +12171,7 @@
         <v>44144</v>
       </c>
       <c r="F22" s="3">
-        <f>DATE(YEAR(E22),MONTH(E22)+6,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44325</v>
       </c>
       <c r="G22" t="b">
@@ -12203,7 +12195,7 @@
         <v>44325</v>
       </c>
       <c r="F23" s="3">
-        <f>DATE(YEAR(E23),MONTH(E23)+6,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44509</v>
       </c>
       <c r="G23" t="b">
@@ -12227,7 +12219,7 @@
         <v>44509</v>
       </c>
       <c r="F24" s="3">
-        <f>DATE(YEAR(E24),MONTH(E24)+6,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44690</v>
       </c>
       <c r="G24" t="b">
@@ -12251,7 +12243,7 @@
         <v>44690</v>
       </c>
       <c r="F25" s="3">
-        <f>DATE(YEAR(E25),MONTH(E25)+6,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44874</v>
       </c>
       <c r="G25" t="b">
@@ -12275,7 +12267,7 @@
         <v>44874</v>
       </c>
       <c r="F26" s="3">
-        <f>DATE(YEAR(E26),MONTH(E26)+6,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>45055</v>
       </c>
       <c r="G26" t="b">
@@ -12299,7 +12291,7 @@
         <v>45055</v>
       </c>
       <c r="F27" s="3">
-        <f>DATE(YEAR(E27),MONTH(E27)+6,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>45239</v>
       </c>
       <c r="G27" t="b">
@@ -12323,7 +12315,7 @@
         <v>45239</v>
       </c>
       <c r="F28" s="3">
-        <f>DATE(YEAR(E28),MONTH(E28)+6,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>45421</v>
       </c>
       <c r="G28" t="b">
@@ -12347,7 +12339,7 @@
         <v>45421</v>
       </c>
       <c r="F29" s="3">
-        <f>DATE(YEAR(E29),MONTH(E29)+6,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>45605</v>
       </c>
       <c r="G29" t="b">
@@ -12371,7 +12363,7 @@
         <v>45605</v>
       </c>
       <c r="F30" s="3">
-        <f>DATE(YEAR(E30),MONTH(E30)+6,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>45786</v>
       </c>
       <c r="G30" t="b">
@@ -12395,7 +12387,7 @@
         <v>45786</v>
       </c>
       <c r="F31" s="3">
-        <f>DATE(YEAR(E31),MONTH(E31)+6,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>45970</v>
       </c>
       <c r="G31" t="b">
@@ -12419,7 +12411,7 @@
         <v>45970</v>
       </c>
       <c r="F32" s="3">
-        <f>DATE(YEAR(E32),MONTH(E32)+6,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>46151</v>
       </c>
       <c r="G32" t="b">
@@ -12443,7 +12435,7 @@
         <v>45414</v>
       </c>
       <c r="F33" s="3">
-        <f>DATE(YEAR(E33),MONTH(E33)+6,DAY(E33))</f>
+        <f t="shared" si="0"/>
         <v>45598</v>
       </c>
       <c r="G33" t="b">
@@ -12467,7 +12459,7 @@
         <v>45598</v>
       </c>
       <c r="F34" s="3">
-        <f>DATE(YEAR(E34),MONTH(E34)+6,DAY(E34))</f>
+        <f t="shared" ref="F34:F65" si="1">DATE(YEAR(E34),MONTH(E34)+6,DAY(E34))</f>
         <v>45779</v>
       </c>
       <c r="G34" t="b">
@@ -12491,7 +12483,7 @@
         <v>45779</v>
       </c>
       <c r="F35" s="3">
-        <f>DATE(YEAR(E35),MONTH(E35)+6,DAY(E35))</f>
+        <f t="shared" si="1"/>
         <v>45963</v>
       </c>
       <c r="G35" t="b">
@@ -12515,7 +12507,7 @@
         <v>45963</v>
       </c>
       <c r="F36" s="3">
-        <f>DATE(YEAR(E36),MONTH(E36)+6,DAY(E36))</f>
+        <f t="shared" si="1"/>
         <v>46144</v>
       </c>
       <c r="G36" t="b">
@@ -12539,7 +12531,7 @@
         <v>45891</v>
       </c>
       <c r="F37" s="3">
-        <f>DATE(YEAR(E37),MONTH(E37)+6,DAY(E37))</f>
+        <f t="shared" si="1"/>
         <v>46075</v>
       </c>
       <c r="G37" t="b">
@@ -12563,7 +12555,7 @@
         <v>44924</v>
       </c>
       <c r="F38" s="3">
-        <f>DATE(YEAR(E38),MONTH(E38)+6,DAY(E38))</f>
+        <f t="shared" si="1"/>
         <v>45106</v>
       </c>
       <c r="G38" t="b">
@@ -12587,7 +12579,7 @@
         <v>45106</v>
       </c>
       <c r="F39" s="3">
-        <f>DATE(YEAR(E39),MONTH(E39)+6,DAY(E39))</f>
+        <f t="shared" si="1"/>
         <v>45289</v>
       </c>
       <c r="G39" t="b">
@@ -12611,7 +12603,7 @@
         <v>45289</v>
       </c>
       <c r="F40" s="3">
-        <f>DATE(YEAR(E40),MONTH(E40)+6,DAY(E40))</f>
+        <f t="shared" si="1"/>
         <v>45472</v>
       </c>
       <c r="G40" t="b">
@@ -12635,7 +12627,7 @@
         <v>45472</v>
       </c>
       <c r="F41" s="3">
-        <f>DATE(YEAR(E41),MONTH(E41)+6,DAY(E41))</f>
+        <f t="shared" si="1"/>
         <v>45655</v>
       </c>
       <c r="G41" t="b">
@@ -12659,7 +12651,7 @@
         <v>45655</v>
       </c>
       <c r="F42" s="3">
-        <f>DATE(YEAR(E42),MONTH(E42)+6,DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>45837</v>
       </c>
       <c r="G42" t="b">
@@ -12683,7 +12675,7 @@
         <v>45330</v>
       </c>
       <c r="F43" s="3">
-        <f>DATE(YEAR(E43),MONTH(E43)+6,DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>45512</v>
       </c>
       <c r="G43" t="b">
@@ -12707,7 +12699,7 @@
         <v>45512</v>
       </c>
       <c r="F44" s="3">
-        <f>DATE(YEAR(E44),MONTH(E44)+6,DAY(E44))</f>
+        <f t="shared" si="1"/>
         <v>45696</v>
       </c>
       <c r="G44" t="b">
@@ -12731,7 +12723,7 @@
         <v>45696</v>
       </c>
       <c r="F45" s="3">
-        <f>DATE(YEAR(E45),MONTH(E45)+6,DAY(E45))</f>
+        <f t="shared" si="1"/>
         <v>45877</v>
       </c>
       <c r="G45" t="b">
@@ -12755,7 +12747,7 @@
         <v>45849</v>
       </c>
       <c r="F46" s="3">
-        <f>DATE(YEAR(E46),MONTH(E46)+6,DAY(E46))</f>
+        <f t="shared" si="1"/>
         <v>46033</v>
       </c>
       <c r="G46" t="b">
@@ -12779,7 +12771,7 @@
         <v>46033</v>
       </c>
       <c r="F47" s="3">
-        <f>DATE(YEAR(E47),MONTH(E47)+6,DAY(E47))</f>
+        <f t="shared" si="1"/>
         <v>46214</v>
       </c>
       <c r="G47" t="b">
@@ -12803,7 +12795,7 @@
         <v>45394</v>
       </c>
       <c r="F48" s="3">
-        <f>DATE(YEAR(E48),MONTH(E48)+6,DAY(E48))</f>
+        <f t="shared" si="1"/>
         <v>45577</v>
       </c>
       <c r="G48" t="b">
@@ -12827,7 +12819,7 @@
         <v>45577</v>
       </c>
       <c r="F49" s="3">
-        <f>DATE(YEAR(E49),MONTH(E49)+6,DAY(E49))</f>
+        <f t="shared" si="1"/>
         <v>45759</v>
       </c>
       <c r="G49" t="b">
@@ -12851,7 +12843,7 @@
         <v>45759</v>
       </c>
       <c r="F50" s="3">
-        <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
+        <f t="shared" si="1"/>
         <v>45942</v>
       </c>
       <c r="G50" t="b">
@@ -12875,7 +12867,7 @@
         <v>45942</v>
       </c>
       <c r="F51" s="3">
-        <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
+        <f t="shared" si="1"/>
         <v>46124</v>
       </c>
       <c r="G51" t="b">
@@ -12899,7 +12891,7 @@
         <v>45010</v>
       </c>
       <c r="F52" s="3">
-        <f>DATE(YEAR(E52),MONTH(E52)+6,DAY(E52))</f>
+        <f t="shared" si="1"/>
         <v>45194</v>
       </c>
       <c r="G52" t="b">
@@ -12923,7 +12915,7 @@
         <v>45194</v>
       </c>
       <c r="F53" s="3">
-        <f>DATE(YEAR(E53),MONTH(E53)+6,DAY(E53))</f>
+        <f t="shared" si="1"/>
         <v>45376</v>
       </c>
       <c r="G53" t="b">
@@ -12947,7 +12939,7 @@
         <v>45376</v>
       </c>
       <c r="F54" s="3">
-        <f>DATE(YEAR(E54),MONTH(E54)+6,DAY(E54))</f>
+        <f t="shared" si="1"/>
         <v>45560</v>
       </c>
       <c r="G54" t="b">
@@ -12971,7 +12963,7 @@
         <v>45560</v>
       </c>
       <c r="F55" s="3">
-        <f>DATE(YEAR(E55),MONTH(E55)+6,DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>45741</v>
       </c>
       <c r="G55" t="b">
@@ -12995,7 +12987,7 @@
         <v>45741</v>
       </c>
       <c r="F56" s="3">
-        <f>DATE(YEAR(E56),MONTH(E56)+6,DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>45925</v>
       </c>
       <c r="G56" t="b">
@@ -13019,7 +13011,7 @@
         <v>45925</v>
       </c>
       <c r="F57" s="3">
-        <f>DATE(YEAR(E57),MONTH(E57)+6,DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>46106</v>
       </c>
       <c r="G57" t="b">
@@ -13043,7 +13035,7 @@
         <v>45982</v>
       </c>
       <c r="F58" s="3">
-        <f>DATE(YEAR(E58),MONTH(E58)+6,DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>46163</v>
       </c>
       <c r="G58" t="b">
@@ -13067,7 +13059,7 @@
         <v>45245</v>
       </c>
       <c r="F59" s="3">
-        <f>DATE(YEAR(E59),MONTH(E59)+6,DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>45427</v>
       </c>
       <c r="G59" t="b">
@@ -13091,7 +13083,7 @@
         <v>45427</v>
       </c>
       <c r="F60" s="3">
-        <f>DATE(YEAR(E60),MONTH(E60)+6,DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>45611</v>
       </c>
       <c r="G60" t="b">
@@ -13115,7 +13107,7 @@
         <v>45611</v>
       </c>
       <c r="F61" s="3">
-        <f>DATE(YEAR(E61),MONTH(E61)+6,DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>45792</v>
       </c>
       <c r="G61" t="b">
@@ -13139,7 +13131,7 @@
         <v>45792</v>
       </c>
       <c r="F62" s="3">
-        <f>DATE(YEAR(E62),MONTH(E62)+6,DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>45976</v>
       </c>
       <c r="G62" t="b">
@@ -13163,7 +13155,7 @@
         <v>45502</v>
       </c>
       <c r="F63" s="3">
-        <f>DATE(YEAR(E63),MONTH(E63)+6,DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>45686</v>
       </c>
       <c r="G63" t="b">
@@ -13187,7 +13179,7 @@
         <v>45686</v>
       </c>
       <c r="F64" s="3">
-        <f>DATE(YEAR(E64),MONTH(E64)+6,DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>45867</v>
       </c>
       <c r="G64" t="b">
@@ -13211,7 +13203,7 @@
         <v>45867</v>
       </c>
       <c r="F65" s="3">
-        <f>DATE(YEAR(E65),MONTH(E65)+6,DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>46051</v>
       </c>
       <c r="G65" t="b">
@@ -13235,7 +13227,7 @@
         <v>45884</v>
       </c>
       <c r="F66" s="3">
-        <f>DATE(YEAR(E66),MONTH(E66)+6,DAY(E66))</f>
+        <f t="shared" ref="F66:F97" si="2">DATE(YEAR(E66),MONTH(E66)+6,DAY(E66))</f>
         <v>46068</v>
       </c>
       <c r="G66" t="b">
@@ -13259,7 +13251,7 @@
         <v>45462</v>
       </c>
       <c r="F67" s="3">
-        <f>DATE(YEAR(E67),MONTH(E67)+6,DAY(E67))</f>
+        <f t="shared" si="2"/>
         <v>45645</v>
       </c>
       <c r="G67" t="b">
@@ -13283,7 +13275,7 @@
         <v>45645</v>
       </c>
       <c r="F68" s="3">
-        <f>DATE(YEAR(E68),MONTH(E68)+6,DAY(E68))</f>
+        <f t="shared" si="2"/>
         <v>45827</v>
       </c>
       <c r="G68" t="b">

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\martinez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB512E9D-C3C9-484D-9E45-A92B8845311C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234E2A1-EE7B-4B7B-A4A0-7DA10881EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B2EE24F-4D9F-4C07-B887-598C03669AC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8B2EE24F-4D9F-4C07-B887-598C03669AC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla dinamica" sheetId="2" r:id="rId1"/>
-    <sheet name="Pagos" sheetId="1" r:id="rId2"/>
-    <sheet name="Contratos" sheetId="3" r:id="rId3"/>
+    <sheet name="Contratos" sheetId="3" r:id="rId1"/>
+    <sheet name="Tabla dinamica" sheetId="2" r:id="rId2"/>
+    <sheet name="Pagos" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Libro1Tabla21" hidden="1">Tabla2[]</definedName>
@@ -23,7 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="143">
   <si>
     <t>EDIFICIO</t>
   </si>
@@ -516,6 +517,27 @@
   <si>
     <t>total_neto</t>
   </si>
+  <si>
+    <t>FALSO</t>
+  </si>
+  <si>
+    <t>VERDADERO</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>CUOTA ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>FONDO INMUEBLE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
@@ -815,7 +837,28 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="NOMBRE PROPIETARIO" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="20">
+        <s v="Ana"/>
+        <s v="Luz"/>
+        <s v="Gustavo"/>
+        <s v="Johana"/>
+        <s v="Victor"/>
+        <s v="Melissa"/>
+        <s v="Juan Olmos"/>
+        <s v="Bleikes"/>
+        <s v="Angelica"/>
+        <s v="Yuranis"/>
+        <s v="Henry"/>
+        <s v="Yadeisy"/>
+        <s v="Carlos Rios"/>
+        <s v="Daniel"/>
+        <s v="Liliana"/>
+        <s v="Yelisa"/>
+        <s v="Jaiver"/>
+        <s v="Evelyn"/>
+        <s v="Orlenys"/>
+        <s v="Daniela"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="VALOR" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113333" maxValue="850000" count="28">
@@ -850,13 +893,78 @@
       </sharedItems>
     </cacheField>
     <cacheField name="CUOTA ADMINISTRACION" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="83000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="83000" count="28">
+        <n v="68000"/>
+        <n v="61000"/>
+        <n v="60000"/>
+        <n v="71210"/>
+        <n v="66800"/>
+        <n v="58000"/>
+        <n v="76000"/>
+        <n v="74400"/>
+        <n v="64000"/>
+        <n v="65000"/>
+        <n v="63000"/>
+        <n v="0"/>
+        <n v="80000"/>
+        <n v="61220"/>
+        <n v="64270"/>
+        <n v="63120"/>
+        <n v="65328"/>
+        <n v="78000"/>
+        <n v="83000"/>
+        <n v="74640"/>
+        <n v="78370"/>
+        <n v="68480"/>
+        <n v="66000"/>
+        <n v="61120"/>
+        <n v="71640"/>
+        <n v="73000"/>
+        <n v="70000"/>
+        <n v="67432"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="FONDO INMUEBLE" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20000" count="2">
+        <n v="20000"/>
+        <n v="0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113333" maxValue="747000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113333" maxValue="747000" count="32">
+        <n v="612000"/>
+        <n v="549000"/>
+        <n v="540000"/>
+        <n v="640890"/>
+        <n v="601200"/>
+        <n v="523000"/>
+        <n v="684000"/>
+        <n v="669600"/>
+        <n v="576000"/>
+        <n v="585000"/>
+        <n v="567000"/>
+        <n v="522000"/>
+        <n v="233000"/>
+        <n v="720000"/>
+        <n v="550980"/>
+        <n v="578430"/>
+        <n v="568080"/>
+        <n v="587952"/>
+        <n v="702000"/>
+        <n v="747000"/>
+        <n v="517000"/>
+        <n v="641760"/>
+        <n v="705330"/>
+        <n v="616320"/>
+        <n v="614000"/>
+        <n v="113333"/>
+        <n v="550080"/>
+        <n v="644760"/>
+        <n v="657000"/>
+        <n v="594000"/>
+        <n v="630000"/>
+        <n v="606888"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Meses (FECHA)" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
@@ -912,6 +1020,248 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mauricio Martinez" refreshedDate="46037.437849189817" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{AD8200AA-B37A-4AC7-A750-C25C0D756AD3}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla3"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="id contrato" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nombre" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Ana"/>
+        <s v="Angelica"/>
+        <s v="Bleikes"/>
+        <s v="Carlos Rios"/>
+        <s v="Daniel"/>
+        <s v="Daniela"/>
+        <s v="Evelyn"/>
+        <s v="Gustavo"/>
+        <s v="Henry"/>
+        <s v="Jaiver"/>
+        <s v="Johana"/>
+        <s v="Juan Olmos"/>
+        <s v="Liliana"/>
+        <s v="Luz"/>
+        <s v="Melissa"/>
+        <s v="Orlenys"/>
+        <s v="Victor"/>
+        <s v="Yadeisy"/>
+        <s v="Yelisa"/>
+        <s v="Yuranis"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Edificio" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Piso" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Fecha inicio" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-05-09T00:00:00" maxDate="2026-01-12T00:00:00" count="64">
+        <d v="2024-09-10T00:00:00"/>
+        <d v="2025-03-21T00:00:00"/>
+        <d v="2025-09-21T00:00:00"/>
+        <d v="2024-11-08T00:00:00"/>
+        <d v="2025-05-08T00:00:00"/>
+        <d v="2023-07-29T00:00:00"/>
+        <d v="2024-01-29T00:00:00"/>
+        <d v="2024-07-29T00:00:00"/>
+        <d v="2025-01-29T00:00:00"/>
+        <d v="2025-07-29T00:00:00"/>
+        <d v="2024-08-01T00:00:00"/>
+        <d v="2025-02-01T00:00:00"/>
+        <d v="2024-09-04T00:00:00"/>
+        <d v="2025-03-04T00:00:00"/>
+        <d v="2025-09-04T00:00:00"/>
+        <d v="2025-12-06T00:00:00"/>
+        <d v="2025-09-30T00:00:00"/>
+        <d v="2019-05-09T00:00:00"/>
+        <d v="2019-11-09T00:00:00"/>
+        <d v="2020-05-09T00:00:00"/>
+        <d v="2020-11-09T00:00:00"/>
+        <d v="2021-05-09T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2022-05-09T00:00:00"/>
+        <d v="2022-11-09T00:00:00"/>
+        <d v="2023-05-09T00:00:00"/>
+        <d v="2023-11-09T00:00:00"/>
+        <d v="2024-05-09T00:00:00"/>
+        <d v="2024-11-09T00:00:00"/>
+        <d v="2025-05-09T00:00:00"/>
+        <d v="2025-11-09T00:00:00"/>
+        <d v="2024-05-02T00:00:00"/>
+        <d v="2024-11-02T00:00:00"/>
+        <d v="2025-05-02T00:00:00"/>
+        <d v="2025-11-02T00:00:00"/>
+        <d v="2025-08-22T00:00:00"/>
+        <d v="2022-12-29T00:00:00"/>
+        <d v="2023-06-29T00:00:00"/>
+        <d v="2023-12-29T00:00:00"/>
+        <d v="2024-06-29T00:00:00"/>
+        <d v="2024-12-29T00:00:00"/>
+        <d v="2024-02-08T00:00:00"/>
+        <d v="2024-08-08T00:00:00"/>
+        <d v="2025-02-08T00:00:00"/>
+        <d v="2025-07-11T00:00:00"/>
+        <d v="2026-01-11T00:00:00"/>
+        <d v="2024-04-12T00:00:00"/>
+        <d v="2024-10-12T00:00:00"/>
+        <d v="2025-04-12T00:00:00"/>
+        <d v="2025-10-12T00:00:00"/>
+        <d v="2023-03-25T00:00:00"/>
+        <d v="2023-09-25T00:00:00"/>
+        <d v="2024-03-25T00:00:00"/>
+        <d v="2024-09-25T00:00:00"/>
+        <d v="2025-03-25T00:00:00"/>
+        <d v="2025-09-25T00:00:00"/>
+        <d v="2025-11-21T00:00:00"/>
+        <d v="2023-11-15T00:00:00"/>
+        <d v="2024-05-15T00:00:00"/>
+        <d v="2024-11-15T00:00:00"/>
+        <d v="2025-05-15T00:00:00"/>
+        <d v="2025-08-15T00:00:00"/>
+        <d v="2024-06-19T00:00:00"/>
+        <d v="2024-12-19T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="9"/>
+    </cacheField>
+    <cacheField name="Fecha fin" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-11-09T00:00:00" maxDate="2026-07-12T00:00:00" count="64">
+        <d v="2025-03-10T00:00:00"/>
+        <d v="2025-09-21T00:00:00"/>
+        <d v="2026-03-21T00:00:00"/>
+        <d v="2025-05-08T00:00:00"/>
+        <d v="2025-11-08T00:00:00"/>
+        <d v="2024-01-29T00:00:00"/>
+        <d v="2024-07-29T00:00:00"/>
+        <d v="2025-01-29T00:00:00"/>
+        <d v="2025-07-29T00:00:00"/>
+        <d v="2026-01-29T00:00:00"/>
+        <d v="2025-02-01T00:00:00"/>
+        <d v="2025-08-01T00:00:00"/>
+        <d v="2025-03-04T00:00:00"/>
+        <d v="2025-09-04T00:00:00"/>
+        <d v="2026-03-04T00:00:00"/>
+        <d v="2026-06-06T00:00:00"/>
+        <d v="2026-03-30T00:00:00"/>
+        <d v="2019-11-09T00:00:00"/>
+        <d v="2020-05-09T00:00:00"/>
+        <d v="2020-11-09T00:00:00"/>
+        <d v="2021-05-09T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2022-05-09T00:00:00"/>
+        <d v="2022-11-09T00:00:00"/>
+        <d v="2023-05-09T00:00:00"/>
+        <d v="2023-11-09T00:00:00"/>
+        <d v="2024-05-09T00:00:00"/>
+        <d v="2024-11-09T00:00:00"/>
+        <d v="2025-05-09T00:00:00"/>
+        <d v="2025-11-09T00:00:00"/>
+        <d v="2026-05-09T00:00:00"/>
+        <d v="2024-11-02T00:00:00"/>
+        <d v="2025-05-02T00:00:00"/>
+        <d v="2025-11-02T00:00:00"/>
+        <d v="2026-05-02T00:00:00"/>
+        <d v="2026-02-22T00:00:00"/>
+        <d v="2023-06-29T00:00:00"/>
+        <d v="2023-12-29T00:00:00"/>
+        <d v="2024-06-29T00:00:00"/>
+        <d v="2024-12-29T00:00:00"/>
+        <d v="2025-06-29T00:00:00"/>
+        <d v="2024-08-08T00:00:00"/>
+        <d v="2025-02-08T00:00:00"/>
+        <d v="2025-08-08T00:00:00"/>
+        <d v="2026-01-11T00:00:00"/>
+        <d v="2026-07-11T00:00:00"/>
+        <d v="2024-10-12T00:00:00"/>
+        <d v="2025-04-12T00:00:00"/>
+        <d v="2025-10-12T00:00:00"/>
+        <d v="2026-04-12T00:00:00"/>
+        <d v="2023-09-25T00:00:00"/>
+        <d v="2024-03-25T00:00:00"/>
+        <d v="2024-09-25T00:00:00"/>
+        <d v="2025-03-25T00:00:00"/>
+        <d v="2025-09-25T00:00:00"/>
+        <d v="2026-03-25T00:00:00"/>
+        <d v="2026-05-21T00:00:00"/>
+        <d v="2024-05-15T00:00:00"/>
+        <d v="2024-11-15T00:00:00"/>
+        <d v="2025-05-15T00:00:00"/>
+        <d v="2025-11-15T00:00:00"/>
+        <d v="2026-02-15T00:00:00"/>
+        <d v="2024-12-19T00:00:00"/>
+        <d v="2025-06-19T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Activo" numFmtId="0">
+      <sharedItems count="2">
+        <b v="0"/>
+        <b v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Meses (Fecha inicio)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="months" startDate="2019-05-09T00:00:00" endDate="2026-01-12T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;9/05/2019"/>
+          <s v="ene"/>
+          <s v="feb"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="may"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="sep"/>
+          <s v="oct"/>
+          <s v="nov"/>
+          <s v="dic"/>
+          <s v="&gt;12/01/2026"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Trimestres (Fecha inicio)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="quarters" startDate="2019-05-09T00:00:00" endDate="2026-01-12T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;9/05/2019"/>
+          <s v="Trim.1"/>
+          <s v="Trim.2"/>
+          <s v="Trim.3"/>
+          <s v="Trim.4"/>
+          <s v="&gt;12/01/2026"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Años (Fecha inicio)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="years" startDate="2019-05-09T00:00:00" endDate="2026-01-12T00:00:00"/>
+        <groupItems count="10">
+          <s v="&lt;9/05/2019"/>
+          <s v="2019"/>
+          <s v="2020"/>
+          <s v="2021"/>
+          <s v="2022"/>
+          <s v="2023"/>
+          <s v="2024"/>
+          <s v="2025"/>
+          <s v="2026"/>
+          <s v="&gt;12/01/2026"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="179">
   <r>
@@ -922,11 +1272,11 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
@@ -936,11 +1286,11 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
-    <x v="1"/>
-    <n v="61000"/>
-    <n v="20000"/>
-    <n v="549000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -950,11 +1300,11 @@
     <x v="0"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
     <x v="2"/>
-    <n v="60000"/>
-    <n v="0"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="9ce44e27-d7b6-4887-a696-e74e8e7b2a28"/>
@@ -964,11 +1314,11 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -978,11 +1328,11 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="3c91b9e4-e30d-43c4-93ec-843b4e0debfe"/>
@@ -992,11 +1342,11 @@
     <x v="0"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
     <x v="5"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="523000"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="e919ee59-138a-4725-be6c-8f7c401f3312"/>
@@ -1006,11 +1356,11 @@
     <x v="0"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
     <x v="6"/>
-    <n v="76000"/>
-    <n v="20000"/>
-    <n v="684000"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="5c552dcf-ebef-4bfe-aee2-c4a6981c0f3a"/>
@@ -1020,11 +1370,11 @@
     <x v="0"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -1034,11 +1384,11 @@
     <x v="0"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="165e1685-0b5f-46a9-8720-08682265922b"/>
@@ -1048,11 +1398,11 @@
     <x v="0"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -1062,11 +1412,11 @@
     <x v="0"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="9"/>
-    <n v="64000"/>
-    <n v="20000"/>
-    <n v="576000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="09012b19-863a-4906-b34b-a89dcba8626e"/>
@@ -1076,11 +1426,11 @@
     <x v="0"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="4768bece-ab83-433d-8e6e-3a9988dd03b1"/>
@@ -1090,11 +1440,11 @@
     <x v="0"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="e6519542-cc79-4b71-bb1a-dedae13cc106"/>
@@ -1104,11 +1454,11 @@
     <x v="0"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="c40dcd0a-2212-45b3-b5d4-2aac8818bdf9"/>
@@ -1118,11 +1468,11 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
@@ -1132,11 +1482,11 @@
     <x v="1"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
-    <x v="1"/>
-    <n v="61000"/>
-    <n v="20000"/>
-    <n v="549000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -1146,11 +1496,11 @@
     <x v="1"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
     <x v="2"/>
-    <n v="60000"/>
-    <n v="0"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
@@ -1160,11 +1510,11 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -1174,11 +1524,11 @@
     <x v="1"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="3c91b9e4-e30d-43c4-93ec-843b4e0debfe"/>
@@ -1188,11 +1538,11 @@
     <x v="1"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
     <x v="5"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="523000"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="e919ee59-138a-4725-be6c-8f7c401f3312"/>
@@ -1202,11 +1552,11 @@
     <x v="1"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
     <x v="6"/>
-    <n v="76000"/>
-    <n v="20000"/>
-    <n v="684000"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="5c552dcf-ebef-4bfe-aee2-c4a6981c0f3a"/>
@@ -1216,11 +1566,11 @@
     <x v="1"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -1230,11 +1580,11 @@
     <x v="1"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
@@ -1244,11 +1594,11 @@
     <x v="1"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -1258,11 +1608,11 @@
     <x v="1"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="9"/>
-    <n v="64000"/>
-    <n v="20000"/>
-    <n v="576000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="09012b19-863a-4906-b34b-a89dcba8626e"/>
@@ -1272,11 +1622,11 @@
     <x v="1"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="4768bece-ab83-433d-8e6e-3a9988dd03b1"/>
@@ -1286,11 +1636,11 @@
     <x v="1"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="e6519542-cc79-4b71-bb1a-dedae13cc106"/>
@@ -1300,11 +1650,11 @@
     <x v="1"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="c40dcd0a-2212-45b3-b5d4-2aac8818bdf9"/>
@@ -1314,11 +1664,11 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="c40dcd0a-2212-45b3-b5d4-2aac8818bdf9"/>
@@ -1328,11 +1678,11 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
+    <x v="0"/>
     <x v="12"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="233000"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
@@ -1342,11 +1692,11 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
-    <x v="1"/>
-    <n v="61000"/>
-    <n v="20000"/>
-    <n v="549000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -1356,11 +1706,11 @@
     <x v="2"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
     <x v="2"/>
-    <n v="60000"/>
-    <n v="0"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
@@ -1370,11 +1720,11 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -1384,11 +1734,11 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="3c91b9e4-e30d-43c4-93ec-843b4e0debfe"/>
@@ -1398,11 +1748,11 @@
     <x v="2"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
     <x v="5"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="523000"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="e919ee59-138a-4725-be6c-8f7c401f3312"/>
@@ -1412,11 +1762,11 @@
     <x v="2"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -1426,11 +1776,11 @@
     <x v="2"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -1440,11 +1790,11 @@
     <x v="2"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
@@ -1454,11 +1804,11 @@
     <x v="2"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -1468,11 +1818,11 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="9"/>
-    <n v="64000"/>
-    <n v="20000"/>
-    <n v="576000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -1482,11 +1832,11 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="4768bece-ab83-433d-8e6e-3a9988dd03b1"/>
@@ -1496,11 +1846,11 @@
     <x v="2"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="e6519542-cc79-4b71-bb1a-dedae13cc106"/>
@@ -1510,11 +1860,11 @@
     <x v="2"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="c40dcd0a-2212-45b3-b5d4-2aac8818bdf9"/>
@@ -1524,11 +1874,11 @@
     <x v="3"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
@@ -1538,11 +1888,11 @@
     <x v="3"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
-    <x v="1"/>
-    <n v="61000"/>
-    <n v="20000"/>
-    <n v="549000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -1552,11 +1902,11 @@
     <x v="3"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
     <x v="2"/>
-    <n v="60000"/>
-    <n v="0"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
@@ -1566,11 +1916,11 @@
     <x v="3"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -1580,11 +1930,11 @@
     <x v="3"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="3c91b9e4-e30d-43c4-93ec-843b4e0debfe"/>
@@ -1594,11 +1944,11 @@
     <x v="3"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
@@ -1608,11 +1958,11 @@
     <x v="3"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -1622,11 +1972,11 @@
     <x v="3"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -1636,11 +1986,11 @@
     <x v="3"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
@@ -1650,11 +2000,11 @@
     <x v="3"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -1664,11 +2014,11 @@
     <x v="3"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="9"/>
-    <n v="64000"/>
-    <n v="20000"/>
-    <n v="576000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -1678,11 +2028,11 @@
     <x v="3"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
@@ -1692,11 +2042,11 @@
     <x v="3"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="e6519542-cc79-4b71-bb1a-dedae13cc106"/>
@@ -1706,11 +2056,11 @@
     <x v="3"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -1720,11 +2070,11 @@
     <x v="4"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
@@ -1734,11 +2084,11 @@
     <x v="4"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -1748,11 +2098,11 @@
     <x v="4"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
     <x v="2"/>
-    <n v="60000"/>
-    <n v="0"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
@@ -1762,11 +2112,11 @@
     <x v="4"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -1776,11 +2126,11 @@
     <x v="4"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -1790,11 +2140,11 @@
     <x v="4"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
@@ -1804,11 +2154,11 @@
     <x v="4"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -1818,11 +2168,11 @@
     <x v="4"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -1832,11 +2182,11 @@
     <x v="4"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
@@ -1846,11 +2196,11 @@
     <x v="4"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -1860,11 +2210,11 @@
     <x v="4"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="9"/>
-    <n v="64000"/>
-    <n v="20000"/>
-    <n v="576000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -1874,11 +2224,11 @@
     <x v="4"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
@@ -1888,11 +2238,11 @@
     <x v="4"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -1902,11 +2252,11 @@
     <x v="4"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -1916,11 +2266,11 @@
     <x v="5"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -1930,11 +2280,11 @@
     <x v="5"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
@@ -1944,11 +2294,11 @@
     <x v="5"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
@@ -1958,11 +2308,11 @@
     <x v="5"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Johana"/>
     <x v="3"/>
-    <n v="71210"/>
-    <n v="20000"/>
-    <n v="640890"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
@@ -1972,11 +2322,11 @@
     <x v="5"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -1986,11 +2336,11 @@
     <x v="5"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
@@ -2000,11 +2350,11 @@
     <x v="5"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -2014,11 +2364,11 @@
     <x v="5"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
@@ -2028,11 +2378,11 @@
     <x v="5"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
@@ -2042,11 +2392,11 @@
     <x v="5"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Yuranis"/>
+    <x v="9"/>
     <x v="8"/>
-    <n v="60000"/>
-    <n v="20000"/>
-    <n v="540000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
@@ -2056,11 +2406,11 @@
     <x v="5"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -2070,11 +2420,11 @@
     <x v="5"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
@@ -2084,11 +2434,11 @@
     <x v="5"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -2098,11 +2448,11 @@
     <x v="5"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -2112,11 +2462,11 @@
     <x v="6"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -2126,11 +2476,11 @@
     <x v="6"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -2140,11 +2490,11 @@
     <x v="6"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
@@ -2154,11 +2504,11 @@
     <x v="6"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -2168,11 +2518,11 @@
     <x v="6"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
@@ -2182,11 +2532,11 @@
     <x v="6"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -2196,11 +2546,11 @@
     <x v="6"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
@@ -2210,11 +2560,11 @@
     <x v="6"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -2224,11 +2574,11 @@
     <x v="6"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -2238,11 +2588,11 @@
     <x v="6"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
@@ -2252,11 +2602,11 @@
     <x v="6"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -2266,11 +2616,11 @@
     <x v="6"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -2280,11 +2630,11 @@
     <x v="7"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -2294,11 +2644,11 @@
     <x v="7"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -2308,11 +2658,11 @@
     <x v="7"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -2322,11 +2672,11 @@
     <x v="7"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
@@ -2336,11 +2686,11 @@
     <x v="7"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -2350,11 +2700,11 @@
     <x v="7"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
@@ -2364,11 +2714,11 @@
     <x v="7"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Juan Olmos"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="80000"/>
-    <n v="20000"/>
-    <n v="720000"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
@@ -2378,11 +2728,11 @@
     <x v="7"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
@@ -2392,11 +2742,11 @@
     <x v="7"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -2406,11 +2756,11 @@
     <x v="7"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
@@ -2420,11 +2770,11 @@
     <x v="7"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
@@ -2434,11 +2784,11 @@
     <x v="7"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Carlos Rios"/>
+    <x v="12"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -2448,11 +2798,11 @@
     <x v="7"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="58000"/>
-    <n v="20000"/>
-    <n v="522000"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -2462,11 +2812,11 @@
     <x v="8"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -2476,11 +2826,11 @@
     <x v="8"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -2490,11 +2840,11 @@
     <x v="8"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -2504,11 +2854,11 @@
     <x v="8"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
@@ -2518,11 +2868,11 @@
     <x v="8"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -2532,11 +2882,11 @@
     <x v="8"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
@@ -2546,11 +2896,11 @@
     <x v="8"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Yelisa"/>
+    <x v="15"/>
     <x v="19"/>
-    <n v="83000"/>
-    <n v="20000"/>
-    <n v="747000"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
@@ -2560,11 +2910,11 @@
     <x v="8"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
     <x v="7"/>
-    <n v="74400"/>
-    <n v="20000"/>
-    <n v="669600"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
@@ -2574,11 +2924,11 @@
     <x v="8"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
@@ -2588,11 +2938,11 @@
     <x v="8"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Jaiver"/>
+    <x v="16"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -2602,11 +2952,11 @@
     <x v="8"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
@@ -2616,11 +2966,11 @@
     <x v="8"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="10"/>
-    <n v="65000"/>
-    <n v="20000"/>
-    <n v="585000"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -2630,11 +2980,11 @@
     <x v="8"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="2"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="517000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
@@ -2644,11 +2994,11 @@
     <x v="9"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
+    <x v="0"/>
     <x v="20"/>
-    <n v="74640"/>
-    <n v="20000"/>
-    <n v="641760"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -2658,11 +3008,11 @@
     <x v="9"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -2672,11 +3022,11 @@
     <x v="9"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -2686,11 +3036,11 @@
     <x v="9"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
@@ -2700,11 +3050,11 @@
     <x v="9"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
@@ -2714,11 +3064,11 @@
     <x v="9"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
@@ -2728,11 +3078,11 @@
     <x v="9"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Yelisa"/>
+    <x v="15"/>
     <x v="19"/>
-    <n v="83000"/>
-    <n v="20000"/>
-    <n v="747000"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
@@ -2742,11 +3092,11 @@
     <x v="9"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
+    <x v="7"/>
     <x v="21"/>
-    <n v="78370"/>
-    <n v="20000"/>
-    <n v="705330"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
@@ -2756,11 +3106,11 @@
     <x v="9"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
@@ -2770,11 +3120,11 @@
     <x v="9"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Jaiver"/>
+    <x v="16"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -2784,11 +3134,11 @@
     <x v="9"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
@@ -2798,11 +3148,11 @@
     <x v="9"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="22"/>
-    <n v="68480"/>
-    <n v="20000"/>
-    <n v="616320"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="2aaff763-f744-410b-9718-249c5a655998"/>
@@ -2812,11 +3162,11 @@
     <x v="9"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Evelyn"/>
+    <x v="17"/>
     <x v="23"/>
-    <n v="66000"/>
-    <n v="0"/>
-    <n v="614000"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="2aaff763-f744-410b-9718-249c5a655998"/>
@@ -2826,11 +3176,11 @@
     <x v="9"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Evelyn"/>
+    <x v="17"/>
     <x v="24"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="113333"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="25"/>
   </r>
   <r>
     <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
@@ -2840,11 +3190,11 @@
     <x v="9"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="16"/>
-    <n v="61120"/>
-    <n v="20000"/>
-    <n v="550080"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="3dcc043e-cebd-4562-843a-73004bc5a5fb"/>
@@ -2854,11 +3204,11 @@
     <x v="10"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
+    <x v="0"/>
     <x v="20"/>
-    <n v="74640"/>
-    <n v="20000"/>
-    <n v="641760"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
@@ -2868,11 +3218,11 @@
     <x v="10"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -2882,11 +3232,11 @@
     <x v="10"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -2896,11 +3246,11 @@
     <x v="10"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
@@ -2910,11 +3260,11 @@
     <x v="10"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Victor"/>
     <x v="4"/>
-    <n v="66800"/>
-    <n v="20000"/>
-    <n v="601200"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="2eb39786-09e7-4dd1-ae3f-137c5bc86751"/>
@@ -2924,11 +3274,11 @@
     <x v="10"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
@@ -2938,11 +3288,11 @@
     <x v="10"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Yelisa"/>
+    <x v="15"/>
     <x v="19"/>
-    <n v="83000"/>
-    <n v="20000"/>
-    <n v="747000"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
@@ -2952,11 +3302,11 @@
     <x v="10"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
+    <x v="7"/>
     <x v="21"/>
-    <n v="78370"/>
-    <n v="20000"/>
-    <n v="705330"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
@@ -2966,11 +3316,11 @@
     <x v="10"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Angelica"/>
-    <x v="0"/>
-    <n v="68000"/>
-    <n v="20000"/>
-    <n v="612000"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
@@ -2980,11 +3330,11 @@
     <x v="10"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Jaiver"/>
+    <x v="16"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -2994,11 +3344,11 @@
     <x v="10"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
@@ -3008,11 +3358,11 @@
     <x v="10"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="22"/>
-    <n v="68480"/>
-    <n v="20000"/>
-    <n v="616320"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="2aaff763-f744-410b-9718-249c5a655998"/>
@@ -3022,11 +3372,11 @@
     <x v="10"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Evelyn"/>
+    <x v="17"/>
     <x v="23"/>
-    <n v="66000"/>
-    <n v="0"/>
-    <n v="614000"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="1138e6b0-3b54-4f90-9461-f8f76393e615"/>
@@ -3036,11 +3386,11 @@
     <x v="10"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="16"/>
-    <n v="61120"/>
-    <n v="20000"/>
-    <n v="550080"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="3dcc043e-cebd-4562-843a-73004bc5a5fb"/>
@@ -3050,11 +3400,11 @@
     <x v="11"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
+    <x v="0"/>
     <x v="20"/>
-    <n v="71640"/>
-    <n v="20000"/>
-    <n v="644760"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="e39b3e8a-33b6-49ac-8fe8-f4ed22ad8b90"/>
@@ -3064,11 +3414,11 @@
     <x v="11"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
@@ -3078,11 +3428,11 @@
     <x v="11"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -3092,11 +3442,11 @@
     <x v="11"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="2eb39786-09e7-4dd1-ae3f-137c5bc86751"/>
@@ -3106,11 +3456,11 @@
     <x v="11"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
@@ -3120,11 +3470,11 @@
     <x v="11"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Yelisa"/>
+    <x v="15"/>
     <x v="19"/>
-    <n v="83000"/>
-    <n v="20000"/>
-    <n v="747000"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
@@ -3134,11 +3484,11 @@
     <x v="11"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
+    <x v="7"/>
     <x v="21"/>
-    <n v="78370"/>
-    <n v="20000"/>
-    <n v="705330"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="7366f152-e5d2-44a3-8beb-4d85e5905cbc"/>
@@ -3148,11 +3498,11 @@
     <x v="11"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Orlenys"/>
+    <x v="18"/>
     <x v="25"/>
-    <n v="73000"/>
-    <n v="20000"/>
-    <n v="657000"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
@@ -3162,11 +3512,11 @@
     <x v="11"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Jaiver"/>
+    <x v="16"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
@@ -3176,11 +3526,11 @@
     <x v="11"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="17"/>
-    <n v="65328"/>
-    <n v="20000"/>
-    <n v="587952"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
@@ -3190,11 +3540,11 @@
     <x v="11"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="22"/>
-    <n v="68480"/>
-    <n v="20000"/>
-    <n v="616320"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="2aaff763-f744-410b-9718-249c5a655998"/>
@@ -3204,11 +3554,11 @@
     <x v="11"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Evelyn"/>
+    <x v="17"/>
     <x v="23"/>
-    <n v="66000"/>
-    <n v="20000"/>
-    <n v="594000"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="1138e6b0-3b54-4f90-9461-f8f76393e615"/>
@@ -3218,11 +3568,11 @@
     <x v="11"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="16"/>
-    <n v="61120"/>
-    <n v="20000"/>
-    <n v="550080"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="3dcc043e-cebd-4562-843a-73004bc5a5fb"/>
@@ -3232,11 +3582,11 @@
     <x v="12"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Ana"/>
+    <x v="0"/>
     <x v="20"/>
-    <n v="71640"/>
-    <n v="20000"/>
-    <n v="644760"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="e39b3e8a-33b6-49ac-8fe8-f4ed22ad8b90"/>
@@ -3246,11 +3596,11 @@
     <x v="12"/>
     <x v="0"/>
     <n v="2"/>
-    <s v="Luz"/>
+    <x v="1"/>
     <x v="15"/>
-    <n v="64270"/>
-    <n v="20000"/>
-    <n v="578430"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="cac5cc64-81f9-466e-94ec-47be649d3deb"/>
@@ -3260,11 +3610,11 @@
     <x v="12"/>
     <x v="0"/>
     <n v="3"/>
-    <s v="Gustavo"/>
+    <x v="2"/>
     <x v="16"/>
-    <n v="63120"/>
-    <n v="0"/>
-    <n v="568080"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
@@ -3274,11 +3624,11 @@
     <x v="12"/>
     <x v="1"/>
     <n v="1"/>
-    <s v="Liliana"/>
+    <x v="14"/>
     <x v="18"/>
-    <n v="78000"/>
-    <n v="20000"/>
-    <n v="702000"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="4d99141d-777f-42b8-9171-236b233bb4bf"/>
@@ -3288,11 +3638,11 @@
     <x v="12"/>
     <x v="1"/>
     <n v="2"/>
-    <s v="Daniela"/>
+    <x v="19"/>
     <x v="26"/>
-    <n v="70000"/>
-    <n v="20000"/>
-    <n v="630000"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="2eb39786-09e7-4dd1-ae3f-137c5bc86751"/>
@@ -3302,11 +3652,11 @@
     <x v="12"/>
     <x v="1"/>
     <n v="3"/>
-    <s v="Melissa"/>
+    <x v="5"/>
     <x v="14"/>
-    <n v="61220"/>
-    <n v="20000"/>
-    <n v="550980"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
@@ -3316,11 +3666,11 @@
     <x v="12"/>
     <x v="2"/>
     <n v="1"/>
-    <s v="Yelisa"/>
+    <x v="15"/>
     <x v="19"/>
-    <n v="83000"/>
-    <n v="20000"/>
-    <n v="747000"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
@@ -3330,11 +3680,11 @@
     <x v="12"/>
     <x v="2"/>
     <n v="2"/>
-    <s v="Bleikes"/>
+    <x v="7"/>
     <x v="21"/>
-    <n v="78370"/>
-    <n v="20000"/>
-    <n v="705330"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="7366f152-e5d2-44a3-8beb-4d85e5905cbc"/>
@@ -3344,11 +3694,11 @@
     <x v="12"/>
     <x v="2"/>
     <n v="3"/>
-    <s v="Orlenys"/>
+    <x v="18"/>
     <x v="25"/>
-    <n v="73000"/>
-    <n v="20000"/>
-    <n v="657000"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
@@ -3358,11 +3708,11 @@
     <x v="12"/>
     <x v="2"/>
     <n v="4"/>
-    <s v="Jaiver"/>
+    <x v="16"/>
     <x v="11"/>
-    <n v="63000"/>
-    <n v="20000"/>
-    <n v="567000"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="40f08409-f7a6-467c-8e53-1f5a9a143a9f"/>
@@ -3372,11 +3722,11 @@
     <x v="12"/>
     <x v="3"/>
     <n v="1"/>
-    <s v="Henry"/>
+    <x v="10"/>
     <x v="27"/>
-    <n v="67432"/>
-    <n v="20000"/>
-    <n v="606888"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
@@ -3386,11 +3736,11 @@
     <x v="12"/>
     <x v="3"/>
     <n v="2"/>
-    <s v="Yadeisy"/>
+    <x v="11"/>
     <x v="22"/>
-    <n v="68480"/>
-    <n v="20000"/>
-    <n v="616320"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="2aaff763-f744-410b-9718-249c5a655998"/>
@@ -3400,11 +3750,11 @@
     <x v="12"/>
     <x v="3"/>
     <n v="3"/>
-    <s v="Evelyn"/>
+    <x v="17"/>
     <x v="23"/>
-    <n v="66000"/>
-    <n v="20000"/>
-    <n v="594000"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="1138e6b0-3b54-4f90-9461-f8f76393e615"/>
@@ -3414,17 +3764,1328 @@
     <x v="12"/>
     <x v="3"/>
     <n v="4"/>
-    <s v="Daniel"/>
+    <x v="13"/>
     <x v="16"/>
-    <n v="61120"/>
-    <n v="20000"/>
-    <n v="550080"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+  <r>
+    <s v="c40dcd0a-2212-45b3-b5d4-2aac8818bdf9"/>
+    <x v="0"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="0f257e4c-3331-4e0e-869e-42c5a332a2a1"/>
+    <x v="0"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="3dcc043e-cebd-4562-843a-73004bc5a5fb"/>
+    <x v="0"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ec860adc-defd-41d8-a89b-21d87b7ea128"/>
+    <x v="1"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ae88cdb7-93b0-42cd-bda5-e4576643e9c7"/>
+    <x v="1"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="f60b893f-8aac-444a-b58c-711ee16b899d"/>
+    <x v="2"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="4665eec5-beab-4ad7-94aa-2367bd5ad522"/>
+    <x v="2"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="5c552dcf-ebef-4bfe-aee2-c4a6981c0f3a"/>
+    <x v="2"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="4c0d2b4b-0d3e-42de-af57-9305df4b2c02"/>
+    <x v="2"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="2"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="359216a7-8ba9-4e24-8cac-7dc225c9d6e1"/>
+    <x v="2"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="4768bece-ab83-433d-8e6e-3a9988dd03b1"/>
+    <x v="3"/>
+    <s v="Edificio manantial"/>
+    <n v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="bd3eeb6f-a14f-42cf-9deb-94f16f5eee70"/>
+    <x v="3"/>
+    <s v="Edificio manantial"/>
+    <n v="3"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e6519542-cc79-4b71-bb1a-dedae13cc106"/>
+    <x v="4"/>
+    <s v="Edificio manantial"/>
+    <n v="4"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="8dc982a8-8e30-4eb7-905c-fb55c4175ca4"/>
+    <x v="4"/>
+    <s v="Edificio manantial"/>
+    <n v="4"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="1138e6b0-3b54-4f90-9461-f8f76393e615"/>
+    <x v="4"/>
+    <s v="Edificio manantial"/>
+    <n v="4"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="4d99141d-777f-42b8-9171-236b233bb4bf"/>
+    <x v="5"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="2"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2aaff763-f744-410b-9718-249c5a655998"/>
+    <x v="6"/>
+    <s v="Edificio manantial"/>
+    <n v="3"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="6f8a6954-01b7-406a-a093-a2cdaaa92486"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="27310f4f-85e3-4b88-a729-7ac95dafed90"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="a015cb3c-59da-4d45-baab-1eb8c5a27b18"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="30fd925e-19d9-44bd-8b5c-433df4f552c5"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="0373883e-fcad-45c8-8bfa-d9a9fed06e62"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="4a750489-eb15-410f-bb3c-6eb9865520f7"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="63486b31-652f-4bf6-9624-2dded95ee588"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e75eaa65-dcd7-495b-9963-21e4793b7d6b"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="d3d28afd-5f91-4852-8fec-fcfccbfe2f88"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="02bc2bed-c436-414b-bec4-87348717f99f"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ad170f28-d2f4-44b9-8d89-c741ab0358f7"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="8e4d74fa-ec72-4872-a04b-81c46e2fbd96"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="3222d3e6-2b5b-4103-bc55-29e39c33ca84"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cac5cc64-81f9-466e-94ec-47be649d3deb"/>
+    <x v="7"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="3"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="d8bf72da-b904-40a1-aaa6-6daa1b9ff004"/>
+    <x v="8"/>
+    <s v="Edificio manantial"/>
+    <n v="1"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="16fbb6a2-d237-4dd2-8a6d-7bd76aa8645c"/>
+    <x v="8"/>
+    <s v="Edificio manantial"/>
+    <n v="1"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="01fb67ad-1898-47db-a814-5a658a723a89"/>
+    <x v="8"/>
+    <s v="Edificio manantial"/>
+    <n v="1"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="40f08409-f7a6-467c-8e53-1f5a9a143a9f"/>
+    <x v="8"/>
+    <s v="Edificio manantial"/>
+    <n v="1"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="b934fcd1-5390-4b7c-b3bc-4a642a1d7f9e"/>
+    <x v="9"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="4"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="a453002a-364d-498e-9097-955db383620d"/>
+    <x v="10"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="606f9920-bca3-4057-9abe-f16ab4f7062b"/>
+    <x v="10"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="fbb0f214-f25a-43ce-bf0b-afe741b4c27b"/>
+    <x v="10"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="9ce44e27-d7b6-4887-a696-e74e8e7b2a28"/>
+    <x v="10"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="1c9d267f-bb28-462a-9b6c-10633cc45e36"/>
+    <x v="10"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e5026bf5-3439-43f5-a430-a6f452320778"/>
+    <x v="11"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="1"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e919ee59-138a-4725-be6c-8f7c401f3312"/>
+    <x v="11"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="1"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="420d1c8b-349d-466e-9369-1ab30c465800"/>
+    <x v="11"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="1"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="1f5eb474-0cc5-4f59-bde6-8b6fb39d4b29"/>
+    <x v="12"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="4c98583b-658d-4d2e-816a-705f956fba8d"/>
+    <x v="12"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="1"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="f0fd51a6-8061-417f-ba26-419ba1697033"/>
+    <x v="13"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="2"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e09f74db-f923-4e51-8bce-340da723f0cc"/>
+    <x v="13"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="2"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="0d8d157d-f9ab-4cd6-ac8a-7ed1a74a6746"/>
+    <x v="13"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="2"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e39b3e8a-33b6-49ac-8fe8-f4ed22ad8b90"/>
+    <x v="13"/>
+    <s v="Edificio 1 gaitán"/>
+    <n v="2"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="1cd652ac-940f-4a69-a321-3f92483495db"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="edf21768-caed-40a0-991e-289107b07c58"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="9164c581-af94-48fd-8c20-5bddb475655f"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="3c91b9e4-e30d-43c4-93ec-843b4e0debfe"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="652336e7-90e6-4346-a1db-9c99b994afe6"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2eb39786-09e7-4dd1-ae3f-137c5bc86751"/>
+    <x v="14"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="3"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="7366f152-e5d2-44a3-8beb-4d85e5905cbc"/>
+    <x v="15"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="3"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="902883b7-2b53-41f8-9d1f-dae6135b4eb7"/>
+    <x v="16"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="2"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2735a74a-eaef-47c1-b2f0-822480f10700"/>
+    <x v="16"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="2"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="9d4e93ec-8103-4ec7-94d4-480e0647a578"/>
+    <x v="16"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="2"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="e725ef85-824a-4f9c-b7c6-445df4612ef0"/>
+    <x v="16"/>
+    <s v="Edificio 2 gaitán"/>
+    <n v="2"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="09012b19-863a-4906-b34b-a89dcba8626e"/>
+    <x v="17"/>
+    <s v="Edificio manantial"/>
+    <n v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10424221-9e53-4f28-aea8-3549e2e43b87"/>
+    <x v="17"/>
+    <s v="Edificio manantial"/>
+    <n v="2"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10959edc-7e2c-4e4e-b5ee-d6bdac93ae9e"/>
+    <x v="17"/>
+    <s v="Edificio manantial"/>
+    <n v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="02c61008-4e84-43c2-88b5-08e054eb6049"/>
+    <x v="18"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="1"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="165e1685-0b5f-46a9-8720-08682265922b"/>
+    <x v="19"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="4"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="f2b5f4e7-1f87-4e12-8e0e-4963e89c092a"/>
+    <x v="19"/>
+    <s v="Edificio 3 gaitán"/>
+    <n v="4"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED51A7FA-5616-4D41-9AC1-6FF4E5CD68A8}" name="buscarpagos" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K3:R17" firstHeaderRow="1" firstDataRow="1" firstDataCol="8" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="28">
+        <item x="24"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="13"/>
+        <item x="19"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="28">
+        <item x="11"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="18"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="33">
+        <item x="25"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="8">
+    <field x="4"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="1"/>
+    <field x="8"/>
+    <field x="9"/>
+    <field x="10"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+      <x v="11"/>
+      <x/>
+      <x/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="5"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="6"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="7"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="8"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="9"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="11"/>
+      <x v="1"/>
+      <x/>
+      <x v="6"/>
+      <x v="7"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="7" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06F4A8A2-5C36-4529-BBBC-CAD2CA385DA1}" name="TablaDinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="D22:F37" firstHeaderRow="1" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="64">
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="50"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="5"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="57"/>
+        <item x="38"/>
+        <item x="6"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="46"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="58"/>
+        <item x="62"/>
+        <item x="39"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="53"/>
+        <item x="47"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="59"/>
+        <item x="63"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="54"/>
+        <item x="48"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="60"/>
+        <item x="44"/>
+        <item x="9"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="49"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="45"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="64">
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="50"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="5"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="57"/>
+        <item x="38"/>
+        <item x="6"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="46"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="58"/>
+        <item x="62"/>
+        <item x="39"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="53"/>
+        <item x="47"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="59"/>
+        <item x="63"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="54"/>
+        <item x="48"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="60"/>
+        <item x="44"/>
+        <item x="9"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="49"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="45"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="4"/>
+    <field x="5"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="14"/>
+      <x/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="35"/>
+      <x/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="48"/>
+      <x/>
+    </i>
+    <i>
+      <x v="60"/>
+      <x v="60"/>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="7" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3592,8 +5253,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3747,31 +5408,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}" name="Tabla2" displayName="Tabla2" ref="A1:L180">
-  <autoFilter ref="A1:L180" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}"/>
-  <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="15" dataCellStyle="Moneda">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(1,(Contratos!$B$2:$B$203=H2)*(Contratos!$C$2:$C$203=F2)*(Contratos!$D$2:$D$203=G2)*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&gt;=DATE(YEAR(Contratos!$E$2:$E$203),MONTH(Contratos!$E$2:$E$203),1))*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&lt;=DATE(YEAR(Contratos!$F$2:$F$203),MONTH(Contratos!$F$2:$F$203),1)),Contratos!$A$2:$A$203,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{F0CAEC13-A22D-49CB-BE2E-9A4FC071AF92}" name="tipo"/>
-    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4640DB88-1C85-480E-B479-D49720A50211}" name="EDIFICIO"/>
-    <tableColumn id="3" xr3:uid="{CBA44883-DED6-4AA3-B725-E7EA2FB864E4}" name="PISO"/>
-    <tableColumn id="4" xr3:uid="{0E9B9BFD-342C-42BD-AD06-36D131E7E418}" name="NOMBRE PROPIETARIO"/>
-    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda">
-      <calculatedColumnFormula>I2-SUM(J2:K2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DC46791-7A50-4D15-9C65-5DF524EC2A8B}" name="Tabla3" displayName="Tabla3" ref="A1:G68" totalsRowShown="0">
   <autoFilter ref="A1:G68" xr:uid="{8DC46791-7A50-4D15-9C65-5DF524EC2A8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -3798,6 +5434,31 @@
     <tableColumn id="6" xr3:uid="{43CBE528-71BC-4EE5-90D4-91B96A898534}" name="Activo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}" name="Tabla2" displayName="Tabla2" ref="A1:L180">
+  <autoFilter ref="A1:L180" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}"/>
+  <tableColumns count="12">
+    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="15" dataCellStyle="Moneda">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(1,(Contratos!$B$2:$B$203=H2)*(Contratos!$C$2:$C$203=F2)*(Contratos!$D$2:$D$203=G2)*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&gt;=DATE(YEAR(Contratos!$E$2:$E$203),MONTH(Contratos!$E$2:$E$203),1))*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&lt;=DATE(YEAR(Contratos!$F$2:$F$203),MONTH(Contratos!$F$2:$F$203),1)),Contratos!$A$2:$A$203,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{F0CAEC13-A22D-49CB-BE2E-9A4FC071AF92}" name="tipo"/>
+    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4640DB88-1C85-480E-B479-D49720A50211}" name="EDIFICIO"/>
+    <tableColumn id="3" xr3:uid="{CBA44883-DED6-4AA3-B725-E7EA2FB864E4}" name="PISO"/>
+    <tableColumn id="4" xr3:uid="{0E9B9BFD-342C-42BD-AD06-36D131E7E418}" name="NOMBRE PROPIETARIO"/>
+    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>I2-SUM(J2:K2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4117,11 +5778,1667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF62FC-3CE6-43D4-B164-4BD8E709E364}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45545</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F33" si="0">DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</f>
+        <v>45726</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45737</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45921</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>46102</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45604</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>45785</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45785</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>45969</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45136</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>45320</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45320</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>45502</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45502</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>45686</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45686</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>45867</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45867</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45505</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45689</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45539</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>45720</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45720</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>45904</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45904</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>46085</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45997</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>46179</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45930</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>46111</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43594</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>43778</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43778</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>43960</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43960</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>44144</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44144</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>44325</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44325</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>44509</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44509</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>44690</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44690</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>44874</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44874</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>45055</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45055</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>45239</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45239</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>45421</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45421</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>45605</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45605</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>45786</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45786</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>45970</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45970</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>46151</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45414</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>45598</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45598</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34:F65" si="1">DATE(YEAR(E34),MONTH(E34)+6,DAY(E34))</f>
+        <v>45779</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45779</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>45963</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45963</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>46144</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45891</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>46075</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44924</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>45106</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45106</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>45289</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45289</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>45472</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45472</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>45655</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45655</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>45837</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45330</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>45512</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45512</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>45696</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45696</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>45877</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45849</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>46033</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>46033</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>46214</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45394</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>45577</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45577</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>45759</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>45942</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45942</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>46124</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45010</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>45194</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="1"/>
+        <v>45376</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45376</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="1"/>
+        <v>45560</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="1"/>
+        <v>45741</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45741</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="1"/>
+        <v>45925</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45925</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="1"/>
+        <v>46106</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45982</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="1"/>
+        <v>46163</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45245</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="1"/>
+        <v>45427</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="1"/>
+        <v>45611</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="1"/>
+        <v>45792</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45792</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="1"/>
+        <v>45976</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45502</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="1"/>
+        <v>45686</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45686</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>45867</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45867</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="1"/>
+        <v>46051</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45884</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" ref="F66:F68" si="2">DATE(YEAR(E66),MONTH(E66)+6,DAY(E66))</f>
+        <v>46068</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45462</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="2"/>
+        <v>45645</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45645</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="2"/>
+        <v>45827</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EC477-38BE-479C-9C35-16FB6E13005D}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,30 +7446,26 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -4166,8 +7479,14 @@
         <v>110</v>
       </c>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -4181,7 +7500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>45667</v>
       </c>
@@ -4194,16 +7513,64 @@
       <c r="E3" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>45698</v>
       </c>
       <c r="B4" s="6">
         <v>8221690</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <v>45667</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>2024</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="6">
+        <v>600000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>60000</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>45730</v>
       </c>
@@ -4225,8 +7592,32 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <v>45698</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>2025</v>
+      </c>
+      <c r="N5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="6">
+        <v>600000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>60000</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>45755</v>
       </c>
@@ -4248,8 +7639,32 @@
       <c r="H6" s="6">
         <v>1791270</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <v>45730</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>2025</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="6">
+        <v>600000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>60000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>45786</v>
       </c>
@@ -4271,8 +7686,32 @@
       <c r="H7" s="6">
         <v>1882980</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <v>45755</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>2025</v>
+      </c>
+      <c r="N7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="6">
+        <v>600000</v>
+      </c>
+      <c r="P7" s="6">
+        <v>60000</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>45835</v>
       </c>
@@ -4294,8 +7733,32 @@
       <c r="H8" s="6">
         <v>2676330</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <v>45786</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <v>2025</v>
+      </c>
+      <c r="N8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="6">
+        <v>600000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>60000</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>45846</v>
       </c>
@@ -4317,8 +7780,32 @@
       <c r="H9" s="6">
         <v>2367288</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <v>45835</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>2025</v>
+      </c>
+      <c r="N9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P9" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45877</v>
       </c>
@@ -4340,24 +7827,96 @@
       <c r="H10" s="6">
         <v>8717868</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>45846</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>2025</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P10" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45910</v>
       </c>
       <c r="B11" s="6">
         <v>7898242</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <v>45877</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11">
+        <v>2025</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P11" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45939</v>
       </c>
       <c r="B12" s="6">
         <v>8755465</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>2025</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P12" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45969</v>
       </c>
@@ -4365,37 +7924,314 @@
         <v>8642132</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <v>45939</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13">
+        <v>2025</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P13" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>46002</v>
       </c>
       <c r="B14" s="6">
         <v>8068932</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>45969</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14">
+        <v>2025</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P14" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="6">
         <v>8717868</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <v>46002</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>2025</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P15" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>46031</v>
       </c>
       <c r="B16" s="6">
         <v>8717868</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <v>46031</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>2025</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="6">
+        <v>631200</v>
+      </c>
+      <c r="P16" s="6">
+        <v>63120</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>568080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="6">
         <v>107023095</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>43594</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43778</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>43778</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43960</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>43960</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>44144</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44325</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>44325</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44509</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>44509</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44690</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>44690</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44874</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>44874</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45055</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>45055</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45239</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>45239</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45421</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>45421</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45605</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>45605</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45786</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>45786</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45970</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>45970</v>
+      </c>
+      <c r="E36" s="3">
+        <v>46151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4403,12 +8239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA441FC2-F066-4240-A5D3-86173A9FBD6C}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:L170"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11628,1664 +15464,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF62FC-3CE6-43D4-B164-4BD8E709E364}">
-  <dimension ref="A1:G68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45545</v>
-      </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F33" si="0">DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</f>
-        <v>45726</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45737</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>45921</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45921</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>46102</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45604</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>45785</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45785</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>45969</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45136</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>45320</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45320</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>45502</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45502</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>45686</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45686</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>45867</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45867</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>46051</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45505</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>45689</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45689</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>45870</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45539</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>45720</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45720</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>45904</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45904</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>46085</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45997</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>46179</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45930</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>46111</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>43594</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>43778</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>43778</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>43960</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>43960</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>44144</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>44144</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>44325</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>44325</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>44509</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44509</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>44690</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>44690</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>44874</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>44874</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>45055</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45055</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>45239</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45239</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>45421</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>45421</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>45605</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>45605</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>45786</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>45786</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>45970</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>45970</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>46151</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45414</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45598</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" ref="F34:F65" si="1">DATE(YEAR(E34),MONTH(E34)+6,DAY(E34))</f>
-        <v>45779</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>45779</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="1"/>
-        <v>45963</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>45963</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="1"/>
-        <v>46144</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3">
-        <v>45891</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="1"/>
-        <v>46075</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>44924</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>45106</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="1"/>
-        <v>45289</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45289</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="1"/>
-        <v>45472</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>45472</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="1"/>
-        <v>45655</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>45655</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="1"/>
-        <v>45837</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45330</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="1"/>
-        <v>45512</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>45512</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="1"/>
-        <v>45696</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45696</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="1"/>
-        <v>45877</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45849</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="1"/>
-        <v>46033</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>46033</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="1"/>
-        <v>46214</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
-        <v>45394</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="1"/>
-        <v>45577</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>45577</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="1"/>
-        <v>45759</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45759</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="1"/>
-        <v>45942</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>45942</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="1"/>
-        <v>46124</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>45010</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="1"/>
-        <v>45194</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3">
-        <v>45194</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="1"/>
-        <v>45376</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45376</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="1"/>
-        <v>45560</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45560</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="1"/>
-        <v>45741</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3">
-        <v>45741</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="1"/>
-        <v>45925</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
-        <v>45925</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="1"/>
-        <v>46106</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>45982</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="1"/>
-        <v>46163</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45245</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="1"/>
-        <v>45427</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>45427</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="1"/>
-        <v>45611</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="1"/>
-        <v>45792</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>45792</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="1"/>
-        <v>45976</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>45502</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="1"/>
-        <v>45686</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3">
-        <v>45686</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="1"/>
-        <v>45867</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3">
-        <v>45867</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="1"/>
-        <v>46051</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>45884</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" ref="F66:F97" si="2">DATE(YEAR(E66),MONTH(E66)+6,DAY(E66))</f>
-        <v>46068</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67" s="3">
-        <v>45462</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" si="2"/>
-        <v>45645</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" s="3">
-        <v>45645</v>
-      </c>
-      <c r="F68" s="3">
-        <f t="shared" si="2"/>
-        <v>45827</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\martinez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234E2A1-EE7B-4B7B-A4A0-7DA10881EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223EEB1A-60C2-4D00-9AD4-A72F93DE7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8B2EE24F-4D9F-4C07-B887-598C03669AC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B2EE24F-4D9F-4C07-B887-598C03669AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Contratos" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -643,12 +643,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -756,6 +750,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4382,7 +4382,330 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED51A7FA-5616-4D41-9AC1-6FF4E5CD68A8}" name="buscarpagos" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D5:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Suma de VALOR" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Suma de CUOTA ADMINISTRACION" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Suma de FONDO INMUEBLE" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="14"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED51A7FA-5616-4D41-9AC1-6FF4E5CD68A8}" name="buscarpagos" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K3:R17" firstHeaderRow="1" firstDataRow="1" firstDataCol="8" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4765,8 +5088,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06F4A8A2-5C36-4529-BBBC-CAD2CA385DA1}" name="TablaDinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06F4A8A2-5C36-4529-BBBC-CAD2CA385DA1}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="D22:F37" firstHeaderRow="1" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -5084,329 +5407,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3E51ECB-8434-4FD9-80AC-EB5BC381E6CA}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D5:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Suma de VALOR" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Suma de CUOTA ADMINISTRACION" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Suma de FONDO INMUEBLE" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C46265-C576-445B-B636-538C3D6E1BCD}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="14"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8DC46791-7A50-4D15-9C65-5DF524EC2A8B}" name="Tabla3" displayName="Tabla3" ref="A1:G68" totalsRowShown="0">
   <autoFilter ref="A1:G68" xr:uid="{8DC46791-7A50-4D15-9C65-5DF524EC2A8B}">
@@ -5427,8 +5427,8 @@
     <tableColumn id="1" xr3:uid="{49B63D2B-D77A-41D1-A1A6-9DFBB2F2FD73}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{45D4B31E-F7AE-4F29-A512-F094D9EC8256}" name="Edificio"/>
     <tableColumn id="3" xr3:uid="{2BC4E8A2-CCFD-446C-95EE-2E708D93C82F}" name="Piso"/>
-    <tableColumn id="4" xr3:uid="{3910367C-17DC-4BEC-B1EA-9453E2FC7783}" name="Fecha inicio" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{735B4C96-C7F1-4E5E-8243-597EA027BDEB}" name="Fecha fin" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{3910367C-17DC-4BEC-B1EA-9453E2FC7783}" name="Fecha inicio" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{735B4C96-C7F1-4E5E-8243-597EA027BDEB}" name="Fecha fin" dataDxfId="15">
       <calculatedColumnFormula>DATE(YEAR(E2),MONTH(E2)+6,DAY(E2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{43CBE528-71BC-4EE5-90D4-91B96A898534}" name="Activo"/>
@@ -5441,20 +5441,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}" name="Tabla2" displayName="Tabla2" ref="A1:L180">
   <autoFilter ref="A1:L180" xr:uid="{3C6B0517-BAE9-4FD0-BC92-EB6535A8C0A1}"/>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="15" dataCellStyle="Moneda">
+    <tableColumn id="9" xr3:uid="{F43B528C-F746-4797-A99A-C5CF142DD75C}" name="contrato_arriendo_id" totalsRowLabel="Total" dataDxfId="13" dataCellStyle="Moneda">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(1,(Contratos!$B$2:$B$203=H2)*(Contratos!$C$2:$C$203=F2)*(Contratos!$D$2:$D$203=G2)*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&gt;=DATE(YEAR(Contratos!$E$2:$E$203),MONTH(Contratos!$E$2:$E$203),1))*(DATE(D2,MATCH(C2,{"Enero";"Febrero";"Marzo";"Abril";"Mayo";"Junio";"Julio";"Agosto";"Septiembre";"Octubre";"Noviembre";"Diciembre"},0),1)&lt;=DATE(YEAR(Contratos!$F$2:$F$203),MONTH(Contratos!$F$2:$F$203),1)),Contratos!$A$2:$A$203,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{F0CAEC13-A22D-49CB-BE2E-9A4FC071AF92}" name="tipo"/>
-    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{8ADB429B-987D-40A8-BC40-CA2B6B249546}" name="mes" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{B580620A-F0EE-4BBB-9307-23E7C9959752}" name="anio" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{E9A6E600-8451-4CD7-9D2F-20F6EE24F9E1}" name="fecha_pago" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{4640DB88-1C85-480E-B479-D49720A50211}" name="EDIFICIO"/>
     <tableColumn id="3" xr3:uid="{CBA44883-DED6-4AA3-B725-E7EA2FB864E4}" name="PISO"/>
     <tableColumn id="4" xr3:uid="{0E9B9BFD-342C-42BD-AD06-36D131E7E418}" name="NOMBRE PROPIETARIO"/>
-    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{E8B38F5A-79E9-4B2C-B861-CA871DEA282E}" name="valor_arriendo" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{1B07816B-0328-4CB1-B412-3E09DE639B9D}" name="cuota_administracion" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{5BA356BA-BC5E-474C-A95C-D7BA0D8935B2}" name="fondo_inmueble" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{041CF6AB-E368-45CB-8DAF-17EEC775B8CE}" name="total_neto" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>I2-SUM(J2:K2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5781,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBF62FC-3CE6-43D4-B164-4BD8E709E364}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA441FC2-F066-4240-A5D3-86173A9FBD6C}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
